--- a/요구사항 명세서/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/요구사항 명세서/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA_TN\java_tn\요구사항 명세서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$H$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="217">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -129,9 +135,6 @@
   </si>
   <si>
     <t>RQ-0022</t>
-  </si>
-  <si>
-    <t>RQ-0023</t>
   </si>
   <si>
     <t>RQ-0024</t>
@@ -223,14 +226,6 @@
   <si>
     <t>MEN, WOMAN, KIDS를 마우스호버하면 카테고리와 중분류가 보여진다.
 - 해당 분류를 선택하여 검색한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로고, MEN, WOMAN, KIDS, 검색창, 마이페이지, 찜목록, 장바구니, 로그인으로 구성되어 있다.
-- 로고 클릭시 메인화면으로 이동
-- 로그인시 로그인부분이 안녕하세요! (이름) 으로 바뀐다.
-- 찜목록, 장바구니에 담긴 수 만큼 이미지 위에 표시
-- MEN, WOMAN, KIDS를 마우스호버할 때 해당 카테고리 목록들이 보여진다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -298,17 +293,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호 찾기, 이메일 입력, 비밀번호입력, 로그인 유지, 로그인버튼, 회원가입버튼으로 구성되어 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀번호 찾기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일입력창과 비밀번호 재설정 버튼으로 구성되어 있다.
-- 이메일형태가 아닐경우 ( " 이메일 주소가 유효하지 않습니다. ")알림
-- 재설정 버튼 클릭시 해당 이메일로 새 비밀번호를 보냄</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -331,12 +316,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호 입력창
--필수입력
--최소1개의 숫자와 영어를 혼합하여 8자이상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">회원가입 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -354,17 +333,601 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 장바구니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니의 추가한 제품의 이미지와 나의 장바구니 보기 버튼으로 구성되어있다.
+- 나의 장바구니 보기 버튼, 이미지 클릭시 장바구니 화면으로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기, 이메일 입력, 비밀번호입력, 로그인 유지, 로그인버튼, 회원가입버튼으로 구성되어 있다.
+- 이메일은 있지만 비밀번호가 다를경우 비밀번호를 다시입력하라고 알림
+- 이메일이 없으면 가입되지 않은 이메일이라고 알림
+- 로그인이 완료되면 메인페이지로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 기능 
+- 자동로그인 기능해제
+- 로그아웃을 하면 로그인페이지로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보, 주문조회, 찜목록 으로 구성되어 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 입력창
+- 필수입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호 입력창
+- 필수입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 입력창
+- 필수입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름, 전화번호, 주소로 구성되어 있다.
+- 저장된 값들이 보여지고 수정할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력창
+- 필수입력
+- 최소1개의 숫자와 영어를 혼합하여 8자이상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일, 비밀번호로 구성되어 있다.
+- 저장된 값들이 보여지고 수정할 수 있다.
+- 비밀번호는 빈 입력창으로 보여진다.
+- 비밀번호는 최소1개의 숫자와 영어를 혼합하여 8자이상
+- 비밀번호를 입력하지 않으면 이전 비밀번호로 유지된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문내역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위 낮음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜목록 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 제품의 이미지와 가격, 이름이 보여진다.
+- 클릭하면 해당 상품의 상세화면으로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색결과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색한 결과 또는 선택한 분류가 글씨로 나타난다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">리스트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품이미지와 이름, 가격으로 구성되어 있다.
+- 제품은 가로로 4개씩, 세로로5개씩 총20개로 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지네이션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지네이션은 10개씩 보여진다.
+- 이전, 다음 클릭시 한페이지씩 이동한다.
+- 페이지를 선택하면 해당페이지로 이동한다.
+- 총 제품의 수의 마지막페이지까지 표시된다.
+- 이전, 다음 페이지가 없을 경우 이전, 다음 버튼을 숨김</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">리스트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근에 본 제품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택제품 이미지가 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 및 옵션 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 이름 및 
+옵션 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">제품 설명 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 설명이 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근에 본 제품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위 낮음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품이름이 표시되고 제품의 사이즈, 색상, 수량을 선택한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원의 배송지가 보여지고 수정할 수 있다.
+- 배송지는 이름, 주소, 전화번호로 구성
+- 모두 필수입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구매 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>회원가입버튼
-- 필수입력, 체크를 확인하여 안되어있는곳으로 focus되고 전송안됨
+- 필수입력, 체크를 확인하여 안되어 있는 곳으로 focus되고 전송안됨
 - 이메일이 이미 가입되어 있으면 알림창을 띄우고 전송안됨
 - 회원가입이 완료 되면 메인페이지로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 버튼
+- 배송지가 입력이 안되어 있으면 안된 곳으로 focus되고 전송안됨
+- 구매가 완료되면 주문내역 페이지로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문내역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문한 제품의 이미지와 이름, 옵션들로 구성되어 있다.
+- 클릭시 해당 제품의 상세화면으로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 배송상태를 알려준다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문취소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문한 제품을 취소한다.
+- 배송상태가 주문완료 일때만 가능하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색결과와 검색창으로 구성되어 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별, 카테고리, 소분류, 크기, 신상품, 가격, 정렬기준, 모두지우기로 구성된다.
+- 선택한 분류와 옵션으로 검색하여 리스트를 보여준다.
+- 가격은 최소가격, 최대가격으로 구성
+- 정렬기준은 가격낮은순, 가격높은순, 최근, 인기상품으로 구성
+- 모두지우기 버튼으로 선택된 카테고리를 모두 초기화 할 수있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 제품들의 이미지와 이름, 가격, 등록으로 구성되어 있다.
+- 제품클릭시 상세화면으로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자만 수정할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품이미지를 선택하여 넣어준다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 설명을 입력한다.
+- 이미지 첨부가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로고, MEN, WOMAN, KIDS, 검색창, 마이페이지, 찜목록, 장바구니, 로그인, 관리자페이지로 구성되어 있다.
+- 로고 클릭시 메인화면으로 이동
+- 로그인시 로그인부분이 안녕하세요! (이름) 으로 바뀐다.
+- 로그인되어 있을 경우 찜목록, 장바구니에 담긴 수 만큼 이미지 위에 표시
+- MEN, WOMAN, KIDS를 마우스호버할 때 해당 카테고리 목록들이 보여진다.
+- 관리자페이지는 관리자만 보여지고 관리자만 사용가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자만 삭제할 수 있다.
+- 삭제완료 후 제품관리 페이지로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 제품의 기존 정보값들을 보여주고 수정할 수 있다.
+- 이미지, 이름, 성별, 카테고리, 사이즈, 가격은 필수
+- 수정이 완료되면 알림을 띄우고 제품관리 페이지로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품관리, 주문관리로 구성되어 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일, 비밀번호, 이름, 주소, 전화번호, 권한으로 구성
+- PK : 이메일
+- NOTNULL : 이메일, 비밀번호, 이름, 주소, 전화번호, 권한
+- 기본키 : 권한 = 회원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0053</t>
+  </si>
+  <si>
+    <t>RQ-0054</t>
+  </si>
+  <si>
+    <t>RQ-0055</t>
+  </si>
+  <si>
+    <t>RQ-0056</t>
+  </si>
+  <si>
+    <t>RQ-0057</t>
+  </si>
+  <si>
+    <t>RQ-0058</t>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일입력창과 비밀번호 재설정 버튼으로 구성되어 있다.
+- 이메일형태가 아닐경우 ( " 이메일 주소가 유효하지 않습니다. ")알림
+- 재설정 버튼 클릭시 해당 이메일로 새 비밀번호를 보냄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문된 내역들을 보여준다.
+- 제품이미지, 제품이름, 구매한 회원이메일, 회원이름, 배송지, 전화번호, 배송상태, 주문일
+- 배송상태를 변경할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류번호, 이름, 카테고리번호
+- PK, AI : 소분류번호
+- FK : 카테고리번호
+- NOTNULL : 소분류번호, 카테고리번호, 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리번호, 이름
+- PK, AI : 카테고리번호
+- NOTNULL : 카테고리번호, 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별, 카테고리, 소분류, 사이즈, 신상품, 가격, 한정판, 정렬기준, 모두지우기로 구성된다.
+- 선택한 분류와 옵션으로 검색하여 리스트를 보여준다.
+- 가격은 최소가격, 최대가격으로 구성
+- 정렬기준은 가격낮은순, 가격높은순, 최근, 인기상품으로 구성
+- 모두지우기 버튼으로 선택된 카테고리를 모두 초기화 할 수있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품의 이름, 성별, 카테고리, 소분류, 사이즈, 색상, 가격, 한정판을 입력한다.
+- 이름, 성별, 카테고리, 사이즈, 가격은 필수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상품번호, 이름, 성별, 카테고리, 소분류, 사이즈, 색상, 가격, 한정판, 등록일으로 구성
+- PK, AI : 상품번호
+- FK : 카테고리, 소분류
+- NOTNULL : 상품번호, 이름, 성별, 카테고리, 사이즈, 가격, 등록일
+- 기본키 : 등록일 = now
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0059</t>
+  </si>
+  <si>
+    <t>장바구니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에 있는 제품의 이미지와 이름, 가격, 사이즈, 수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호, 상품번호, 이메일, 주문수량, 배송상태, 주문일
+- PK, AI : 주문번호
+- FK : 상품번호, 이메일
+- NOTNULL : 주문번호, 상품번호, 이메일, 배송상태, 주문일, 주문수량
+- 기본키 : 배송상태 = 주문완료, 주문일 = now</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니추가, 찜하기, 구매로 구성되어 있다.
+- 장바구니 추가 선택시 옵션을 선택해야 한다.
+- 장바구니 추가 선택시 장바구니에 추가되었다고 알림
+- 찜하기 선택시 빈 하트이미지가 하트이미지로 변경
+- 구매 선택시 구매페이지로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 금액 및 구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니번호, 이메일, 상품번호, 수량
+- PK, AI : 장바구니번호
+- FK : 이메일, 상품번호
+- NOTNULL : 장바구니번호, 이메일, 상품번호, 수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">찜목록번호, 이메일, 상품번호
+- PK, AI : 찜목록번호
+- FK : 이메일, 상품번호 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 금액이 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니의 총 금액과 구매버튼으로 구성되어 있다.
+- 구매버튼 클릭시 구매페이지로 이동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -458,6 +1021,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -505,7 +1071,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,7 +1106,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -749,10 +1315,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -760,7 +1339,7 @@
     <col min="1" max="1" width="10.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="4" width="66.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="73" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" bestFit="1" customWidth="1"/>
@@ -794,7 +1373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -805,7 +1384,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
@@ -826,7 +1405,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
@@ -841,13 +1420,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
@@ -861,13 +1440,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
@@ -881,13 +1460,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
@@ -901,13 +1480,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>16</v>
@@ -921,14 +1500,14 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
@@ -936,18 +1515,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
@@ -961,13 +1540,13 @@
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
@@ -976,18 +1555,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
@@ -996,18 +1575,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
@@ -1021,13 +1600,13 @@
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
@@ -1041,13 +1620,13 @@
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>16</v>
@@ -1056,10 +1635,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1067,10 +1655,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1078,10 +1675,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1089,10 +1695,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1100,9 +1715,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>16</v>
@@ -1115,6 +1739,15 @@
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="B20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>16</v>
       </c>
@@ -1122,10 +1755,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
@@ -1133,10 +1775,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1144,10 +1795,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="B23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
@@ -1157,18 +1817,36 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>36</v>
+      <c r="B25" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>16</v>
@@ -1179,40 +1857,76 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>40</v>
+      <c r="B29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>16</v>
@@ -1223,7 +1937,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>16</v>
@@ -1234,29 +1957,56 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>44</v>
+      <c r="B33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>16</v>
@@ -1267,7 +2017,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>16</v>
@@ -1278,7 +2037,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>16</v>
@@ -1289,7 +2057,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>16</v>
@@ -1300,29 +2077,56 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>50</v>
+      <c r="B39" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
@@ -1333,29 +2137,56 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>53</v>
+      <c r="B42" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
@@ -1366,18 +2197,36 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>55</v>
+      <c r="B44" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>16</v>
@@ -1388,7 +2237,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>16</v>
@@ -1399,29 +2257,56 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>59</v>
+      <c r="B48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
@@ -1432,51 +2317,242 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="B50" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="B51" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="B52" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>64</v>
+      <c r="B53" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1484,19 +2560,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1511,4 +2574,17 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/요구사항 명세서/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/요구사항 명세서/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA_TN\java_tn\요구사항 명세서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="1"/>
   </bookViews>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="175">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -204,29 +199,6 @@
   </si>
   <si>
     <t>RQ-0046</t>
-  </si>
-  <si>
-    <t>RQ-0047</t>
-  </si>
-  <si>
-    <t>RQ-0048</t>
-  </si>
-  <si>
-    <t>RQ-0049</t>
-  </si>
-  <si>
-    <t>RQ-0050</t>
-  </si>
-  <si>
-    <t>RQ-0051</t>
-  </si>
-  <si>
-    <t>RQ-0052</t>
-  </si>
-  <si>
-    <t>MEN, WOMAN, KIDS를 마우스호버하면 카테고리와 중분류가 보여진다.
-- 해당 분류를 선택하여 검색한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>메인</t>
@@ -243,14 +215,6 @@
   </si>
   <si>
     <t xml:space="preserve">중단 화면 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WOMAN, MAN, KIDS 이미지
-- 클릭시 해당 카테고리 목록들이 이미지로 보여진다.
-- 한 화면에 4개의 이미지가 보여진다. (이미지 짤려도 됨)
-- 다음, 이전 버튼 클릭시 4개의 이미지씩 움직인다.
-- 다음, 이전 이미지가 4개보다 적을 경우 처음 이미지 또는 마지막 이미지까지 보여지며, 다음, 이전 이미지가 없을 경우 버튼 숨김</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -297,128 +261,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 장바구니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보, 주문조회, 찜목록 으로 구성되어 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>회원가입</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이메일입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 입력창
-- 필수입력
-- 이메일 형태 
-[영문+숫자 1개이상]@[소문자 1개이상] (.[소문자 1개이상]){1번이상반복}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">회원가입 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">약관동의 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>약관동의 체크
-- 필수체크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입버튼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 장바구니</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니의 추가한 제품의 이미지와 나의 장바구니 보기 버튼으로 구성되어있다.
-- 나의 장바구니 보기 버튼, 이미지 클릭시 장바구니 화면으로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 찾기, 이메일 입력, 비밀번호입력, 로그인 유지, 로그인버튼, 회원가입버튼으로 구성되어 있다.
-- 이메일은 있지만 비밀번호가 다를경우 비밀번호를 다시입력하라고 알림
-- 이메일이 없으면 가입되지 않은 이메일이라고 알림
-- 로그인이 완료되면 메인페이지로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃 기능 
-- 자동로그인 기능해제
-- 로그아웃을 하면 로그인페이지로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>우측 화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보, 주문조회, 찜목록 으로 구성되어 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름 입력창
-- 필수입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호 입력창
-- 필수입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 입력창
-- 필수입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름, 전화번호, 주소로 구성되어 있다.
-- 저장된 값들이 보여지고 수정할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>상세정보</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -427,78 +305,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호 입력창
-- 필수입력
-- 최소1개의 숫자와 영어를 혼합하여 8자이상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일, 비밀번호로 구성되어 있다.
-- 저장된 값들이 보여지고 수정할 수 있다.
-- 비밀번호는 빈 입력창으로 보여진다.
-- 비밀번호는 최소1개의 숫자와 영어를 혼합하여 8자이상
-- 비밀번호를 입력하지 않으면 이전 비밀번호로 유지된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문내역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>찜목록</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>우선순위 낮음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>찜목록 화면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>선택한 제품의 이미지와 가격, 이름이 보여진다.
-- 클릭하면 해당 상품의 상세화면으로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>리스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>검색결과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색한 결과 또는 선택한 분류가 글씨로 나타난다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">리스트 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>제품이미지와 이름, 가격으로 구성되어 있다.
-- 제품은 가로로 4개씩, 세로로5개씩 총20개로 구성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>페이지네이션</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>페이지네이션은 10개씩 보여진다.
-- 이전, 다음 클릭시 한페이지씩 이동한다.
-- 페이지를 선택하면 해당페이지로 이동한다.
-- 총 제품의 수의 마지막페이지까지 표시된다.
-- 이전, 다음 페이지가 없을 경우 이전, 다음 버튼을 숨김</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">리스트 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>최근에 본 제품</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -508,10 +334,6 @@
   </si>
   <si>
     <t>제품리스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택제품 이미지가 보여진다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -532,22 +354,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>제품 설명이 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>최근에 본 제품</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>우선순위 낮음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품이름이 표시되고 제품의 사이즈, 색상, 수량을 선택한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>구매</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -564,12 +374,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회원의 배송지가 보여지고 수정할 수 있다.
-- 배송지는 이름, 주소, 전화번호로 구성
-- 모두 필수입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>리뷰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -578,229 +382,207 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>구매 버튼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입버튼
-- 필수입력, 체크를 확인하여 안되어 있는 곳으로 focus되고 전송안됨
-- 이메일이 이미 가입되어 있으면 알림창을 띄우고 전송안됨
-- 회원가입이 완료 되면 메인페이지로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매 버튼
-- 배송지가 입력이 안되어 있으면 안된 곳으로 focus되고 전송안됨
-- 구매가 완료되면 주문내역 페이지로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문내역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>제품 정보</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>주문한 제품의 이미지와 이름, 옵션들로 구성되어 있다.
-- 클릭시 해당 제품의 상세화면으로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 배송상태를 알려준다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>주문취소</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>주문한 제품을 취소한다.
-- 배송상태가 주문완료 일때만 가능하다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>제품리스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품검색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색결과와 검색창으로 구성되어 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별, 카테고리, 소분류, 크기, 신상품, 가격, 정렬기준, 모두지우기로 구성된다.
-- 선택한 분류와 옵션으로 검색하여 리스트를 보여준다.
-- 가격은 최소가격, 최대가격으로 구성
-- 정렬기준은 가격낮은순, 가격높은순, 최근, 인기상품으로 구성
-- 모두지우기 버튼으로 선택된 카테고리를 모두 초기화 할 수있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록된 제품들의 이미지와 이름, 가격, 등록으로 구성되어 있다.
-- 제품클릭시 상세화면으로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>상세화면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>수정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>관리자만 수정할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품이미지를 선택하여 넣어준다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>수정화면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>제품 설명을 입력한다.
-- 이미지 첨부가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로고, MEN, WOMAN, KIDS, 검색창, 마이페이지, 찜목록, 장바구니, 로그인, 관리자페이지로 구성되어 있다.
+    <t>제품관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문된 내역들을 보여준다.
+- 제품이미지, 제품이름, 구매한 회원이메일, 회원이름, 배송지, 전화번호, 배송상태, 주문일
+- 배송상태를 변경할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 금액 및 구매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 금액이 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니의 총 금액과 구매버튼으로 구성되어 있다.
+- 구매버튼 클릭시 구매페이지로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+로고, MEN, WOMAN, KIDS, 검색창, 마이페이지, 찜목록, 장바구니, 로그인, 관리자페이지로 구성되어 있다.
 - 로고 클릭시 메인화면으로 이동
 - 로그인시 로그인부분이 안녕하세요! (이름) 으로 바뀐다.
 - 로그인되어 있을 경우 찜목록, 장바구니에 담긴 수 만큼 이미지 위에 표시
 - MEN, WOMAN, KIDS를 마우스호버할 때 해당 카테고리 목록들이 보여진다.
 - 관리자페이지는 관리자만 보여지고 관리자만 사용가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면구성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자만 삭제할 수 있다.
-- 삭제완료 후 제품관리 페이지로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 제품의 기존 정보값들을 보여주고 수정할 수 있다.
-- 이미지, 이름, 성별, 카테고리, 사이즈, 가격은 필수
-- 수정이 완료되면 알림을 띄우고 제품관리 페이지로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문리스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품관리, 주문관리로 구성되어 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일, 비밀번호, 이름, 주소, 전화번호, 권한으로 구성
-- PK : 이메일
-- NOTNULL : 이메일, 비밀번호, 이름, 주소, 전화번호, 권한
-- 기본키 : 권한 = 회원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0053</t>
-  </si>
-  <si>
-    <t>RQ-0054</t>
-  </si>
-  <si>
-    <t>RQ-0055</t>
-  </si>
-  <si>
-    <t>RQ-0056</t>
-  </si>
-  <si>
-    <t>RQ-0057</t>
-  </si>
-  <si>
-    <t>RQ-0058</t>
-  </si>
-  <si>
-    <t>카테고리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소분류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+WOMAN, MAN, KIDS 이미지
+- 클릭시 해당 카테고리 목록들이 이미지로 보여진다.
+- 한 화면에 4개의 이미지가 보여진다. (이미지 짤려도 됨)
+- 다음, 이전 버튼 클릭시 4개의 이미지씩 움직인다.
+- 다음, 이전 이미지가 4개보다 적을 경우 처음 이미지 또는 마지막 이미지까지 보여지며, 다음, 이전 이미지가 없을 경우 버튼 숨김</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+비밀번호 찾기, 이메일 입력, 비밀번호입력, 로그인 유지, 로그인버튼, 회원가입버튼으로 구성되어 있다.
+- 이메일은 있지만 비밀번호가 다를경우 비밀번호를 다시입력하라고 알림
+- 이메일이 없으면 가입되지 않은 이메일이라고 알림
+- 로그인이 완료되면 메인페이지로 이동</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -810,128 +592,1171 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>주문된 내역들을 보여준다.
-- 제품이미지, 제품이름, 구매한 회원이메일, 회원이름, 배송지, 전화번호, 배송상태, 주문일
-- 배송상태를 변경할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소분류번호, 이름, 카테고리번호
-- PK, AI : 소분류번호
-- FK : 카테고리번호
-- NOTNULL : 소분류번호, 카테고리번호, 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리번호, 이름
-- PK, AI : 카테고리번호
-- NOTNULL : 카테고리번호, 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별, 카테고리, 소분류, 사이즈, 신상품, 가격, 한정판, 정렬기준, 모두지우기로 구성된다.
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+로그아웃 기능 
+- 자동로그인 기능해제
+- 로그아웃을 하면 로그인페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+이름, 전화번호, 주소로 구성되어 있다.
+- 저장된 값들이 보여지고 수정할 수 있다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+이메일, 비밀번호로 구성되어 있다.
+- 저장된 값들이 보여지고 수정할 수 있다.
+- 비밀번호는 빈 입력창으로 보여진다.
+- 비밀번호는 최소1개의 숫자와 영어를 혼합하여 8자이상
+- 비밀번호를 입력하지 않으면 이전 비밀번호로 유지된다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+페이지네이션은 10개씩 보여진다.
+- 이전, 다음 클릭시 한페이지씩 이동한다.
+- 페이지를 선택하면 해당페이지로 이동한다.
+- 총 제품의 수의 마지막페이지까지 표시된다.
+- 이전, 다음 페이지가 없을 경우 이전, 다음 버튼을 숨김</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+선택제품 이미지가 보여진다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 우선순위 낮음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* 우선순위 낮음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+리스트의 최근에 본 제품과 같다.
+- 지금 보고 있는 제품은 보여지지않는다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEN, WOMAN, KIDS를 마우스호버하면 카테고리와 중분류가 보여진다.
+- 해당 분류를 선택하여 검색한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0023</t>
+  </si>
+  <si>
+    <t>선택한 제품의 이미지와 가격, 이름이 보여진다.
+- 클릭하면 해당 상품의 상세화면으로 이동
+- 같은이름의 제품은 하나만 찜할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에 있는 제품의 이미지와 이름, 가격, 사이즈, 색상, 수량으로 구성
+- 수량은 변경 가능
+- 같은제품을 또 장바구니에 담으면 수량이 늘어난다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색한 이름이 포함된 제품들을 보여준다.
+- 띄어쓰기도 제대로 맞춰야 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별, 카테고리, 소분류, 크기, 신상품, 가격, 정렬기준, 모두지우기로 구성된다.
 - 선택한 분류와 옵션으로 검색하여 리스트를 보여준다.
 - 가격은 최소가격, 최대가격으로 구성
 - 정렬기준은 가격낮은순, 가격높은순, 최근, 인기상품으로 구성
-- 모두지우기 버튼으로 선택된 카테고리를 모두 초기화 할 수있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품의 이름, 성별, 카테고리, 소분류, 사이즈, 색상, 가격, 한정판을 입력한다.
-- 이름, 성별, 카테고리, 사이즈, 가격은 필수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상품번호, 이름, 성별, 카테고리, 소분류, 사이즈, 색상, 가격, 한정판, 등록일으로 구성
-- PK, AI : 상품번호
-- FK : 카테고리, 소분류
-- NOTNULL : 상품번호, 이름, 성별, 카테고리, 사이즈, 가격, 등록일
-- 기본키 : 등록일 = now
+- 모두지우기 버튼으로 선택된 카테고리를 모두 초기화 할 수있다.
+- 신상품은 제품의 등록일로 부터 1달이 지나면 해당안됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> * 우선순위 낮음
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-0059</t>
-  </si>
-  <si>
-    <t>장바구니</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에 있는 제품의 이미지와 이름, 가격, 사이즈, 수량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호, 상품번호, 이메일, 주문수량, 배송상태, 주문일
-- PK, AI : 주문번호
-- FK : 상품번호, 이메일
-- NOTNULL : 주문번호, 상품번호, 이메일, 배송상태, 주문일, 주문수량
-- 기본키 : 배송상태 = 주문완료, 주문일 = now</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품이미지와 가격, 이름으로 구성 되어 있다.
+- 한 페이지에 3개씩 보여진다.
+- 이전, 다음 버튼 클릭시 3개씩 이동하고 이전, 다음 이미지가 없으면 
+ 처음, 마지막 이미지까지 이동하고 버튼을 숨김
+- 최대 15개 까지 보여진다. 
+- 최근에 본 제품이 맨왼쪽부터 순서대로 진행된다.
+- 이전에 본 제품이 없으면 이부분이 안보이게 숨긴다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품이미지와 이름, 가격으로 구성되어 있다.
+- 제품은 가로로 4개씩, 세로로5개씩 총20개로 구성
+- 기본으로 제품번호 오름차순 정렬
+- 이름이 같은 제품은 하나만 보인다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 리스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>장바구니추가, 찜하기, 구매로 구성되어 있다.
-- 장바구니 추가 선택시 옵션을 선택해야 한다.
+- 장바구니추가, 구매 선택시 옵션을 선택해야 한다.
+- 이미 장바구니에 있는 제품은 수량이 늘어난다.
 - 장바구니 추가 선택시 장바구니에 추가되었다고 알림
 - 찜하기 선택시 빈 하트이미지가 하트이미지로 변경
 - 구매 선택시 구매페이지로 이동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RQ-0023</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 금액 및 구매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니번호, 이메일, 상품번호, 수량
-- PK, AI : 장바구니번호
-- FK : 이메일, 상품번호
-- NOTNULL : 장바구니번호, 이메일, 상품번호, 수량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>찜목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">찜목록번호, 이메일, 상품번호
-- PK, AI : 찜목록번호
-- FK : 이메일, 상품번호 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 금액</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 금액이 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니의 총 금액과 구매버튼으로 구성되어 있다.
-- 구매버튼 클릭시 구매페이지로 이동</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품 설명이 보여진다.
+- 글과 이미지 가능 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정, 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+관리자만 수정할 수 있다.
+- 관리자가 아니면 버튼이 보이지 않음
+- 수정완료 후 상세화면으로 이동
+- 삭제완료 후 제품관리 페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원의 배송지가 보여지고 수정할 수 있다.
+- 배송지는 이름, 주소, 전화번호로 구성
+- 모두 필수입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문한 제품의 이미지와 이름, 옵션들, 배송상태로 구성되어 있다.
+- 클릭시 해당 제품의 상세화면으로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문한 제품을 취소한다.
+- 배송상태가 주문완료 일때만 가능하다.
+- 주문완료가 아닐 경우 버튼을 숨긴다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품관리, 주문관리로 구성되어 있다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 배송지가 입력이 안되어 있으면 안된 곳으로 focus되고 전송안됨
+- 구매가 완료되면 주문내역 페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품이름이 표시되고 제품의 사이즈, 색상, 수량을 선택한다.
+- 선택된 옵션은 색깔이 바뀐다. 
+- 사이즈와 색상은 이름이 같은 제품이 가지고 있는 사이즈와 색상만 보여진다.
+- 해당 옵션의 재고가 없으면 다른 색깔로 바꾸고 선택할 수 없다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품이미지를 선택하여 넣어준다.
+제품의 이름, 성별, 카테고리, 소분류, 사이즈, 색상, 가격, 한정판, 수량을 입력한다.
+- 이름, 성별, 카테고리, 사이즈, 가격, 수량은 필수
+제품 설명을 입력한다.
+- 이미지 등록가능</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니의 추가한 제품의 이미지와 나의 장바구니 보기 버튼으로 구성되어있다.
+- 나의 장바구니 보기 버튼, 이미지 클릭시 장바구니 화면으로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 전화번호,  주소, 이메일, 이메일인증코드, 비밀번호를 입력한다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 필수입력
+- 필수입력, 체크를 확인하여 안되어 있는 곳으로 focus되고 전송안됨
+- 이메일이 이미 가입되어 있으면 알림창을 띄우고 전송안됨
+- 회원가입이 완료 되면 메인페이지로 이동
+- 전화번호 형태 : 000-0000-0000
+- 이메일 형태 : [숫자와 영문]1자이상 @ [소문자]1자이상 (.[소문자]){1번이상반복}
+- 이메일인증 버튼을 눌러 이메일로 인증 코드를 보낸다.
+- 이메일이 이미 가입되어 있으면 알림창을 띄운다.
+- 이메일로 받은 코드를 입력하여 일치하는지 확인을 한다.
+- 비밀번호 형태 : 최소1개의 숫자와 영어를 혼합하여 8자이상
+약관동의 체크
+- 필수체크
+회원가입 버튼 클릭시
+- 필수입력, 체크를 확인하여 안되어 있는 곳으로 focus되고 전송안됨
+- 이메일인증을 했는지 확인하여 안되어 있으면 알림창을 띄움
+- 회원가입이 완료 되면 메인페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 비밀번호, 이름, 주소, 전화번호, 권한으로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK : 이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- NOTNULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 이메일, 비밀번호, 이름, 주소, 전화번호, 권한
+- 기본키 : 권한 = 회원</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 제품이미지, 이름, 성별, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카테고리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>소분류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 사이즈, 색상, 가격, 한정판, 등록일으로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 카테고리, 소분류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 제품번호, 제품이미지, 이름, 성별, 카테고리, 사이즈, 가격, 등록일
+- 기본키 : 등록일 = now</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품관리리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+해당 제품의 기존 정보값들을 보여주고 수정할 수 있다.
+- 이미지, 이름, 성별, 카테고리, 사이즈, 가격, 수량은 필수
+- 수정이 완료되면 알림을 띄우고 제품관리 페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* 필수구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+리스트 화면과 같지만 아래 항목들이 다르다.
+- 모든 제품들을 보여준다.
+- 최근에 본 목록이 없다. 
+- 제품등록 버튼이 있다. 
+- 남은 수량이 보인다. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카테고리번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 이름으로 구성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- PK, AI : 카테고리번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 카테고리번호, 이름</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>소분류번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 이름, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카테고리번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">으로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 소분류번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 카테고리번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 소분류번호, 카테고리번호, 이름</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 주문수량, 배송상태, 주문일로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 제품번호, 이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 주문번호, 제품번호, 이메일, 배송상태, 주문일, 주문수량
+- 기본키 : 배송상태 = 주문완료, 주문일 = now</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>내목록번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 선택수량, 상태로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 내목록번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 이메일, 제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 장바구니번호, 이메일, 제품번호, 선택수량, 상태(찜, 장바구니, 최근에 본 목록)
+- 기본키 : 수량 = 0</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,6 +1783,52 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -992,7 +1863,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,6 +1880,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1071,7 +1960,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1106,7 +1995,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1319,7 +2208,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1328,17 +2217,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="2" bestFit="1" customWidth="1"/>
@@ -1347,7 +2236,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +2262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="132">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1384,7 +2273,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
@@ -1394,7 +2283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="33">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1404,8 +2293,8 @@
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>64</v>
+      <c r="D3" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
@@ -1415,18 +2304,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="33">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
@@ -1435,18 +2324,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="115.5">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
@@ -1455,18 +2344,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="66">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
@@ -1475,18 +2364,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>16</v>
@@ -1495,18 +2384,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="33">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>16</v>
@@ -1515,18 +2404,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="99">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
@@ -1535,18 +2424,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="49.5">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
@@ -1555,18 +2444,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="297">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>103</v>
+        <v>139</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
@@ -1575,18 +2464,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="33">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
@@ -1595,18 +2484,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="66">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
@@ -1615,18 +2504,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>16</v>
@@ -1635,18 +2524,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="49.5">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>109</v>
+        <v>82</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
@@ -1655,18 +2544,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="99">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
@@ -1675,18 +2564,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="49.5">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
@@ -1695,18 +2584,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="49.5">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>16</v>
@@ -1715,18 +2604,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="33">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>16</v>
@@ -1735,18 +2624,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="33">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>16</v>
@@ -1755,18 +2644,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="99">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
@@ -1775,18 +2664,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="82.5">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
@@ -1795,18 +2684,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="99">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>115</v>
+        <v>87</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
@@ -1815,18 +2704,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="132">
       <c r="A24" s="2" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>206</v>
+        <v>88</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>16</v>
@@ -1835,18 +2724,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="33">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>216</v>
+        <v>89</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>16</v>
@@ -1855,18 +2744,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="82.5">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -1875,18 +2764,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="99">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
@@ -1895,18 +2784,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="49.5">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
@@ -1915,18 +2804,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="49.5">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>122</v>
+        <v>95</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>16</v>
@@ -1935,18 +2824,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>16</v>
@@ -1955,18 +2844,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="82.5">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>127</v>
+        <v>152</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>16</v>
@@ -1975,18 +2864,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="49.5">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>135</v>
+        <v>99</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>16</v>
@@ -1995,18 +2884,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>16</v>
@@ -2015,18 +2904,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="49.5">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>132</v>
+        <v>153</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>16</v>
@@ -2035,18 +2924,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="33">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>16</v>
@@ -2055,18 +2944,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="49.5">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>16</v>
@@ -2075,19 +2964,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="33">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
@@ -2095,18 +2984,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="99">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>16</v>
@@ -2115,18 +3004,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="99">
       <c r="A39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>140</v>
+        <v>161</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
@@ -2135,18 +3024,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="66">
       <c r="A40" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>215</v>
+        <v>108</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
@@ -2155,18 +3044,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="66">
       <c r="A41" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>16</v>
@@ -2175,18 +3064,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="66">
       <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>148</v>
+      <c r="B42" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
@@ -2195,18 +3084,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="99">
       <c r="A43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>150</v>
+      <c r="B43" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
@@ -2215,18 +3104,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="49.5">
       <c r="A44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>152</v>
+      <c r="B44" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>16</v>
@@ -2235,18 +3124,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="66">
       <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>179</v>
+      <c r="B45" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>16</v>
@@ -2255,18 +3144,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="82.5">
       <c r="A46" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>156</v>
+      <c r="B46" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
@@ -2275,18 +3164,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="99">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>199</v>
+      <c r="B47" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
@@ -2295,265 +3184,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="99" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="48" spans="1:7">
+      <c r="C48" s="1"/>
+      <c r="D48" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3"/>
@@ -2569,7 +3202,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2582,7 +3215,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/요구사항 명세서/포트폴리오(아디다스 온라인 스토어).xlsx
+++ b/요구사항 명세서/포트폴리오(아디다스 온라인 스토어).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA_TN\java_tn\요구사항 명세서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="1"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="181">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -477,11 +482,6 @@
   </si>
   <si>
     <t>총 금액이 보여진다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니의 총 금액과 구매버튼으로 구성되어 있다.
-- 구매버튼 클릭시 구매페이지로 이동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -641,33 +641,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-이름, 전화번호, 주소로 구성되어 있다.
-- 저장된 값들이 보여지고 수정할 수 있다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
 이메일, 비밀번호로 구성되어 있다.
 - 저장된 값들이 보여지고 수정할 수 있다.
 - 비밀번호는 빈 입력창으로 보여진다.
@@ -775,19 +748,7 @@
     <t>RQ-0023</t>
   </si>
   <si>
-    <t>선택한 제품의 이미지와 가격, 이름이 보여진다.
-- 클릭하면 해당 상품의 상세화면으로 이동
-- 같은이름의 제품은 하나만 찜할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>제품</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에 있는 제품의 이미지와 이름, 가격, 사이즈, 색상, 수량으로 구성
-- 수량은 변경 가능
-- 같은제품을 또 장바구니에 담으면 수량이 늘어난다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -832,35 +793,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-제품이미지와 이름, 가격으로 구성되어 있다.
-- 제품은 가로로 4개씩, 세로로5개씩 총20개로 구성
-- 기본으로 제품번호 오름차순 정렬
-- 이름이 같은 제품은 하나만 보인다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>마이 리스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -874,33 +806,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-제품 설명이 보여진다.
-- 글과 이미지 가능 </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>수정, 삭제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -938,12 +843,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회원의 배송지가 보여지고 수정할 수 있다.
-- 배송지는 이름, 주소, 전화번호로 구성
-- 모두 필수입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>주문조회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -985,97 +884,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- 배송지가 입력이 안되어 있으면 안된 곳으로 focus되고 전송안됨
-- 구매가 완료되면 주문내역 페이지로 이동</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>제품등록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-제품이름이 표시되고 제품의 사이즈, 색상, 수량을 선택한다.
-- 선택된 옵션은 색깔이 바뀐다. 
-- 사이즈와 색상은 이름이 같은 제품이 가지고 있는 사이즈와 색상만 보여진다.
-- 해당 옵션의 재고가 없으면 다른 색깔로 바꾸고 선택할 수 없다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-제품이미지를 선택하여 넣어준다.
-제품의 이름, 성별, 카테고리, 소분류, 사이즈, 색상, 가격, 한정판, 수량을 입력한다.
-- 이름, 성별, 카테고리, 사이즈, 가격, 수량은 필수
-제품 설명을 입력한다.
-- 이미지 등록가능</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니의 추가한 제품의 이미지와 나의 장바구니 보기 버튼으로 구성되어있다.
-- 나의 장바구니 보기 버튼, 이미지 클릭시 장바구니 화면으로 이동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1143,215 +952,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 비밀번호, 이름, 주소, 전화번호, 권한으로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK : 이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- NOTNULL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 이메일, 비밀번호, 이름, 주소, 전화번호, 권한
-- 기본키 : 권한 = 회원</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 제품이미지, 이름, 성별, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>카테고리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>소분류</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 사이즈, 색상, 가격, 한정판, 등록일으로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- FK : 카테고리, 소분류</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 제품번호, 제품이미지, 이름, 성별, 카테고리, 사이즈, 가격, 등록일
-- 기본키 : 등록일 = now</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>제품관리리스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * 필수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-해당 제품의 기존 정보값들을 보여주고 수정할 수 있다.
-- 이미지, 이름, 성별, 카테고리, 사이즈, 가격, 수량은 필수
-- 수정이 완료되면 알림을 띄우고 제품관리 페이지로 이동</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1534,43 +1135,244 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
+      <t xml:space="preserve"> * 필수구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 배송지가 입력이 안되어 있으면 안된 곳으로 focus되고 전송안됨
+- 구매가 완료되면 주문내역 페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니의 추가한 제품의 이미지와 나의 장바구니 보기 버튼으로 구성되어있다.
+- 나의 장바구니 보기 버튼, 이미지 클릭시 장바구니 화면으로 이동
+- 이미지는 4개까지 보여지며 이전, 다음 버튼 클릭시 4개씩 움직인다. 
+- 이전, 다음 이미지가 없을 경우 처음 또는 마지막 이미지까지 이동하고
+ 이전, 다음 버튼을 숨긴다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+이름, 전화번호, 주소로 구성되어 있다.
+- 저장된 값들이 보여지고 수정할 수 있다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품 설명이 보여진다.
+- 타이틀, 내용, 이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자로 
+ 구성된다.
+- 글과 이미지 가능 
+- 수입자를 제외한 모든 속성 필수입력</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+해당 제품의 기존 정보값들을 보여주고 수정할 수 있다.
+- 이미지, 이름, 성별, 카테고리, 사이즈, 가격, 수량은 필수
+- 수정이 완료되면 알림을 띄우고 제품관리 페이지로 이동</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 제품의 이미지와 가격, 이름이 보여진다.
+- 클릭하면 해당 상품의 상세화면으로 이동
+- 같은코드의 제품은 하나만 찜할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품이미지와 이름, 가격으로 구성되어 있다.
+- 제품은 가로로 4개씩, 세로로5개씩 총20개로 구성
+- 기본으로 제품번호 오름차순 정렬
+- 같은코드의 제품은 하나만 보여진다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품이름이 표시되고 제품의 사이즈, 수량을 선택한다.
+- 선택된 옵션은 색깔이 바뀐다. 
+- 사이즈는 해당제품의 제품코드가 가지고 있는 사이즈만 보여진다.
+- 해당 옵션의 재고가 없으면 다른 색깔로 바꾸고 선택할 수 없다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원의 배송지가 보여지고 수정할 수 있다.
+- 배송지는 이름, 주소, 전화번호로 구성
+- 모두 필수입력
+- 기존 배송지 사용을 선택하면 해당회원의 정보를 쓴다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 필수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+제품이미지를 선택하여 넣어준다.
+제품의 이름, 성별, 카테고리, 소분류, 사이즈, 가격, 한정판, 수량, 
+ 타이틀, 내용, 이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자를 입력한다.
+- 이름, 성별, 카테고리, 사이즈, 가격, 수량, 타이틀, 내용, 이미지, 제품코드, 소재, 컬러, 원산지, 
+ 제조년월, 제조사는 필수
+제품 설명을 입력한다.
+- 이미지 등록가능</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에 있는 제품의 이미지와 이름, 가격, 사이즈, 색상, 수량으로 구성
+- 수량은 변경 가능
+- 같은제품을 또 장바구니에 담으면 수량이 늘어난다.
+- 체크박스로 장바구니의 제품을 선택할 수 있다. 
+- 기본으로 모두 체크되어 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니의 총 금액과 구매버튼으로 구성되어 있다.
+- 구매버튼 클릭시 구매페이지로 이동
+- 선택된 제품들의 총가격이 보여진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0047</t>
+  </si>
+  <si>
+    <t>옵션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1582,11 +1384,11 @@
       <rPr>
         <sz val="11"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 주문수량, 배송상태, 주문일로 구성
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 비밀번호, 이름, 주소, 전화번호, 권한, 우편번호, 상세주소로 구성
 </t>
     </r>
     <r>
@@ -1598,13 +1400,13 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>- PK, AI : 주문번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
+      <t>- PK : 이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
@@ -1614,29 +1416,92 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- NOTNULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 이메일, 비밀번호, 이름, 주소, 전화번호, 권한, 우편번호
+- 기본키 : 권한 = 회원</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 제품이미지, 이름, 성별, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>- FK : 제품번호, 이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- NOTNULL : 주문번호, 제품번호, 이메일, 배송상태, 주문일, 주문수량
-- 기본키 : 배송상태 = 주문완료, 주문일 = now</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>카테고리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>소분류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 가격, 한정판, 등록일,
+  타이틀, 내용, 내용이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자으로 구성
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1646,71 +1511,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>내목록번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 선택수량, 상태로 구성
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- PK, AI : 내목록번호</t>
+      <t>- PK, AI : 제품번호</t>
     </r>
     <r>
       <rPr>
@@ -1732,6 +1533,231 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
+      <t>- FK : 카테고리, 소분류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 제품번호, 제품이미지, 이름, 성별, 카테고리, 가격, 등록일,
+ 타이틀, 내용, 내용이미지, 제품코드, 소재, 컬러, 원산지, 제조년월, 제조사, 수입자
+- 기본키 : 등록일 = now(), 수입자 = 아디다스코리아[유]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 배송상태, 주문일, 이름, 전화번호, 주소, 우편번호, 상세주소로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 제품번호, 이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 주문번호, 제품번호, 이메일, 배송상태, 주문일, 주문수량, 우편번호
+- 기본키 : 배송상태 = 주문완료, 주문일 = now()</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>내목록번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 선택수량, 목록상태, 선택상태로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 내목록번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>- FK : 이메일, 제품번호</t>
     </r>
     <r>
@@ -1743,8 +1769,225 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- NOTNULL : 장바구니번호, 이메일, 제품번호, 선택수량, 상태(찜, 장바구니, 최근에 본 목록)
+- NOTNULL : 내목록번호, 이메일, 제품번호, 선택수량, 목록상태(찜, 장바구니), 선택상태
 - 기본키 : 수량 = 0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-0048</t>
+  </si>
+  <si>
+    <t>주문리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>옵션번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 사이즈, 수량으로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- PK, AI : 옵션번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 옵션번호, 제품번호, 사이즈, 수량</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문리스트번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 총가격, 주문수량으로 구성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- PK, AI : 주문리스트번호 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- FK : 제품번호, 주문번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- NOTNULL : 주문리스트번호, 제품번호, 주문번호, 총가격, 주문수량</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1752,7 +1995,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -1863,7 +2106,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1898,6 +2141,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1960,7 +2206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1995,7 +2241,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2217,10 +2463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2228,7 +2474,7 @@
     <col min="1" max="1" width="10.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" bestFit="1" customWidth="1"/>
@@ -2273,7 +2519,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
@@ -2294,7 +2540,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
@@ -2335,7 +2581,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
@@ -2415,7 +2661,7 @@
         <v>70</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
@@ -2435,7 +2681,7 @@
         <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
@@ -2452,10 +2698,10 @@
         <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
@@ -2464,7 +2710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="33">
+    <row r="12" spans="1:8" ht="82.5">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -2475,7 +2721,7 @@
         <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
@@ -2495,7 +2741,7 @@
         <v>75</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
@@ -2535,7 +2781,7 @@
         <v>82</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
@@ -2555,7 +2801,7 @@
         <v>81</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
@@ -2575,7 +2821,7 @@
         <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
@@ -2584,8 +2830,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="49.5">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:7" ht="82.5">
+      <c r="A18" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2595,7 +2841,7 @@
         <v>122</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>16</v>
@@ -2604,8 +2850,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="33">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:7" ht="49.5">
+      <c r="A19" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2615,7 +2861,7 @@
         <v>123</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>16</v>
@@ -2632,10 +2878,10 @@
         <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>16</v>
@@ -2655,7 +2901,7 @@
         <v>91</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
@@ -2675,7 +2921,7 @@
         <v>90</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
@@ -2695,7 +2941,7 @@
         <v>87</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
@@ -2706,7 +2952,7 @@
     </row>
     <row r="24" spans="1:7" ht="132">
       <c r="A24" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>86</v>
@@ -2715,7 +2961,7 @@
         <v>88</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>16</v>
@@ -2735,7 +2981,7 @@
         <v>89</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>16</v>
@@ -2755,7 +3001,7 @@
         <v>92</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>16</v>
@@ -2775,7 +3021,7 @@
         <v>93</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
@@ -2784,8 +3030,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="49.5">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:7" ht="99">
+      <c r="A28" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2795,7 +3041,7 @@
         <v>94</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
@@ -2815,7 +3061,7 @@
         <v>95</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>16</v>
@@ -2835,7 +3081,7 @@
         <v>100</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>16</v>
@@ -2852,10 +3098,10 @@
         <v>105</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>16</v>
@@ -2864,8 +3110,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="49.5">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:7" ht="66">
+      <c r="A32" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2875,7 +3121,7 @@
         <v>99</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>16</v>
@@ -2912,10 +3158,10 @@
         <v>101</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>16</v>
@@ -2929,13 +3175,13 @@
         <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>16</v>
@@ -2949,13 +3195,13 @@
         <v>46</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>16</v>
@@ -2975,7 +3221,7 @@
         <v>110</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
@@ -2992,10 +3238,10 @@
         <v>109</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>16</v>
@@ -3004,18 +3250,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="99">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:7" ht="132">
+      <c r="A39" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
@@ -3035,7 +3281,7 @@
         <v>108</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
@@ -3075,7 +3321,7 @@
         <v>114</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
@@ -3084,18 +3330,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="99">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:7" ht="115.5">
+      <c r="A43" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>115</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
@@ -3115,7 +3361,7 @@
         <v>116</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>16</v>
@@ -3135,7 +3381,7 @@
         <v>118</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>16</v>
@@ -3145,7 +3391,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="82.5">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -3155,7 +3401,7 @@
         <v>119</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
@@ -3164,7 +3410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="99">
+    <row r="47" spans="1:7" ht="82.5">
       <c r="A47" s="2" t="s">
         <v>57</v>
       </c>
@@ -3172,10 +3418,10 @@
         <v>113</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
@@ -3184,9 +3430,63 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="C48" s="1"/>
-      <c r="D48" s="2"/>
+    <row r="48" spans="1:7" ht="66">
+      <c r="A48" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="66">
+      <c r="A49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="D55" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H3"/>
